--- a/biology/Histoire de la zoologie et de la botanique/Albertus_Seba/Albertus_Seba.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albertus_Seba/Albertus_Seba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albertus Seba (12 mai 1665, Etzel (Friedeburg) (de), Allemagne - 2 mai 1736, Amsterdam) est un zoologiste et un pharmacien hollandais, célèbre pour son cabinet de curiosités.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeune, il voyage beaucoup aux Pays-Bas et en Allemagne pour apprendre la pharmacie. En 1696, il s'installe définitivement à Amsterdam. Les revenus de sa pharmacie lui procurent une solide fortune, qu'il consacre à l'histoire naturelle. La situation de la ville, son port et son activité commerciale lui permettent d'obtenir facilement des spécimens en provenance du nouveau monde et de contrées lointaines. Il vend sa première collection au tsar Pierre Ier le Grand en 1717 (elle constituera l'embryon du futur muséum de Saint-Pétersbourg) et en commence une nouvelle immédiatement.
 Il s'intéresse aux mammifères, aux oiseaux, aux mollusques, aux insectes et aux serpents, son sujet favori. 
@@ -549,7 +563,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le naturaliste allemand Johann Friedrich Gmelin (1748-1804) lui dédie en 1789, le Python de Seba (Python sebae) d'Afrique.
 </t>
